--- a/charts_xlsx/mvchart_r.xlsx
+++ b/charts_xlsx/mvchart_r.xlsx
@@ -448,15 +448,11 @@
     <t xml:space="preserve">153: [9 SEPARATING OPPOSITION to MOON; -1 SEPARATING SQUARE to ASC; 1 APPLYING BIQUINTILE to JUPITER; 7 SEPARATING CONJ to URANUS; 5 APPLYING SEXTILE to NEPTUNE; 4 APPLYING CONJ to PLUTO] </t>
   </si>
   <si>
-    <t>153: [STITCH DETERMINER FOR: SEPARATING OPPOSITION (SUN, MOON) [Score:Intensity: OPPOSITION:9 - Exactness:9, Calc Score:0] 
-Circles, Chains, or Honeycomb 
- Aspect K/P:PatternStitchBase.PURL 
- Planets K/P: [&lt;PatternStitchBase.KNIT: 1&gt;, &lt;PatternStitchBase.KNIT: 1&gt;] Planet Scores: 8, 11 
- Orb Width: 10; STITCH DETERMINER FOR: SEPARATING SQUARE (SUN, ASC) [Score:Intensity: SQUARE:6 - Exactness:-1, Calc Score:5] 
-Squares, or Diamonds 
- Aspect K/P:PatternStitchBase.PURL 
- Planets K/P: [&lt;PatternStitchBase.KNIT: 1&gt;, &lt;PatternStitchBase.KNIT: 1&gt;] Planet Scores: 8, 0 
- Orb Width: 8]</t>
+    <t>153: [[&lt;PatternStitchBase.KNIT: 1&gt;, &lt;PatternStitchBase.PURL: 0&gt;] in P 
+  for 1 stitches on the WS over 10 stitches 
+  Aspecting Planet Dignity Scores: 8, 11; [&lt;PatternStitchBase.KNIT: 1&gt;, &lt;PatternStitchBase.PURL: 0&gt;] in p2tog, k2tog, ssp, spp, spp 
+  for 9 stitches on the WS over 8 stitches 
+  Aspecting Planet Dignity Scores: 8, 0]</t>
   </si>
   <si>
     <t>156</t>
@@ -627,11 +623,9 @@
     <t xml:space="preserve">242: [-1 SEPARATING SQUARE to SUN; 6 APPLYING TRINE to VENUS; -4 SEPARATING SEXTILE to MARS; -4 APPLYING SEXTILE to JUPITER; 6 APPLYING SQUARE to URANUS; -5 SEPARATING SQUARE to PLUTO] </t>
   </si>
   <si>
-    <t>242: [STITCH DETERMINER FOR: SEPARATING SQUARE (ASC, SUN) [Score:Intensity: SQUARE:6 - Exactness:-1, Calc Score:5] 
-Squares, or Diamonds 
- Aspect K/P:PatternStitchBase.PURL 
- Planets K/P: [&lt;PatternStitchBase.KNIT: 1&gt;, &lt;PatternStitchBase.KNIT: 1&gt;] Planet Scores: 0, 8 
- Orb Width: 8]</t>
+    <t>242: [[&lt;PatternStitchBase.KNIT: 1&gt;, &lt;PatternStitchBase.PURL: 0&gt;] in p2tog, k2tog, ssp, spp, spp 
+  for 9 stitches on the WS over 8 stitches 
+  Aspecting Planet Dignity Scores: 0, 8]</t>
   </si>
   <si>
     <t>244</t>
@@ -805,11 +799,9 @@
     <t xml:space="preserve">342: [9 SEPARATING OPPOSITION to SUN; -2 APPLYING OPPOSITION to MERCURY; -1 APPLYING SEMISQUARE to JUPITER; 4 SEPARATING TRINE to NEPTUNE; 5 SEPARATING OPPOSITION to PLUTO] </t>
   </si>
   <si>
-    <t>342: [STITCH DETERMINER FOR: SEPARATING OPPOSITION (MOON, SUN) [Score:Intensity: OPPOSITION:9 - Exactness:9, Calc Score:0] 
-Circles, Chains, or Honeycomb 
- Aspect K/P:PatternStitchBase.PURL 
- Planets K/P: [&lt;PatternStitchBase.KNIT: 1&gt;, &lt;PatternStitchBase.KNIT: 1&gt;] Planet Scores: 11, 8 
- Orb Width: 10]</t>
+    <t>342: [[&lt;PatternStitchBase.KNIT: 1&gt;, &lt;PatternStitchBase.PURL: 0&gt;] in P 
+  for 1 stitches on the WS over 10 stitches 
+  Aspecting Planet Dignity Scores: 11, 8]</t>
   </si>
   <si>
     <t>344</t>
